--- a/data/sankey/sankey.xlsx
+++ b/data/sankey/sankey.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\An\Documents\GitHub\COS30045\data\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398144A-0ADC-48F9-967D-15ED7157836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F652373-B292-4BB3-90C1-F30665C91848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="24" r:id="rId1"/>
     <sheet name="Links" sheetId="25" r:id="rId2"/>
     <sheet name="MSN" sheetId="27" r:id="rId3"/>
-    <sheet name="Group" sheetId="29" r:id="rId4"/>
+    <sheet name="Groups" sheetId="29" r:id="rId4"/>
     <sheet name="GroupSum" sheetId="30" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="224">
   <si>
     <t>MSN</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>column</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD520A74-6D21-4711-8177-C48F7CF78287}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,22 +2134,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79355782-C8F3-47F2-8D09-9B972EF94C18}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>218</v>
@@ -2154,8 +2156,11 @@
       <c r="C1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2165,8 +2170,11 @@
       <c r="C2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2176,8 +2184,11 @@
       <c r="C3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2187,8 +2198,11 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -2198,8 +2212,11 @@
       <c r="C5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -2209,8 +2226,11 @@
       <c r="C6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -2220,8 +2240,11 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -2231,8 +2254,11 @@
       <c r="C8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -2242,8 +2268,11 @@
       <c r="C9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -2253,8 +2282,11 @@
       <c r="C10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -2264,8 +2296,11 @@
       <c r="C11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -2275,8 +2310,11 @@
       <c r="C12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -2286,8 +2324,11 @@
       <c r="C13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -2297,8 +2338,11 @@
       <c r="C14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -2308,8 +2352,11 @@
       <c r="C15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2319,8 +2366,11 @@
       <c r="C16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2330,8 +2380,11 @@
       <c r="C17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2341,8 +2394,11 @@
       <c r="C18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -2352,8 +2408,11 @@
       <c r="C19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -2363,8 +2422,11 @@
       <c r="C20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2374,8 +2436,11 @@
       <c r="C21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -2385,8 +2450,11 @@
       <c r="C22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -2396,8 +2464,11 @@
       <c r="C23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -2407,8 +2478,11 @@
       <c r="C24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -2418,8 +2492,11 @@
       <c r="C25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -2429,8 +2506,11 @@
       <c r="C26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -2440,8 +2520,11 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -2451,8 +2534,11 @@
       <c r="C28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2462,8 +2548,11 @@
       <c r="C29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -2473,8 +2562,11 @@
       <c r="C30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -2484,8 +2576,11 @@
       <c r="C31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -2495,8 +2590,11 @@
       <c r="C32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -2506,8 +2604,11 @@
       <c r="C33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -2517,8 +2618,11 @@
       <c r="C34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -2528,8 +2632,11 @@
       <c r="C35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -2539,8 +2646,11 @@
       <c r="C36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -2550,8 +2660,11 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>157</v>
       </c>
@@ -2561,8 +2674,11 @@
       <c r="C38" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -2572,8 +2688,11 @@
       <c r="C39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -2583,8 +2702,11 @@
       <c r="C40" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -2594,8 +2716,11 @@
       <c r="C41" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -2605,8 +2730,11 @@
       <c r="C42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -2616,8 +2744,11 @@
       <c r="C43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2627,8 +2758,11 @@
       <c r="C44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -2638,8 +2772,11 @@
       <c r="C45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -2649,8 +2786,11 @@
       <c r="C46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -2660,8 +2800,11 @@
       <c r="C47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2671,8 +2814,11 @@
       <c r="C48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2682,8 +2828,11 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -2693,8 +2842,11 @@
       <c r="C50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -2704,8 +2856,11 @@
       <c r="C51" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -2715,8 +2870,11 @@
       <c r="C52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2726,8 +2884,11 @@
       <c r="C53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -2737,8 +2898,11 @@
       <c r="C54" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -2748,8 +2912,11 @@
       <c r="C55" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -2759,8 +2926,11 @@
       <c r="C56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -2769,6 +2939,9 @@
       </c>
       <c r="C57" t="s">
         <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3875,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CF0B-C2EB-4915-A8EA-926F7C386763}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3886,9 +4059,10 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -3902,10 +4076,13 @@
         <v>215</v>
       </c>
       <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -3918,8 +4095,11 @@
       <c r="D2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="D3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -3946,8 +4129,11 @@
       <c r="D4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -3960,11 +4146,14 @@
       <c r="D5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -3977,11 +4166,14 @@
       <c r="D6" t="s">
         <v>184</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -3994,8 +4186,11 @@
       <c r="D7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -4008,11 +4203,14 @@
       <c r="D8" t="s">
         <v>182</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -4025,11 +4223,14 @@
       <c r="D9" t="s">
         <v>193</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -4042,11 +4243,14 @@
       <c r="D10" t="s">
         <v>194</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -4059,8 +4263,11 @@
       <c r="D11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -4073,8 +4280,11 @@
       <c r="D12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -4086,6 +4296,9 @@
       </c>
       <c r="D13" t="s">
         <v>203</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/sankey/sankey.xlsx
+++ b/data/sankey/sankey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\An\Documents\GitHub\COS30045\data\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F652373-B292-4BB3-90C1-F30665C91848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF5FD90-3356-4271-A588-B41DFA9FEFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="24" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="229">
   <si>
     <t>MSN</t>
   </si>
@@ -716,6 +716,21 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>#010101</t>
+  </si>
+  <si>
+    <t>#69779B</t>
+  </si>
+  <si>
+    <t>#ACDBDF</t>
+  </si>
+  <si>
+    <t>#F0ECE2</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD520A74-6D21-4711-8177-C48F7CF78287}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1757,6 +1772,9 @@
       <c r="E8">
         <v>2</v>
       </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1774,6 +1792,9 @@
       <c r="E9">
         <v>2</v>
       </c>
+      <c r="F9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1791,6 +1812,9 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1808,6 +1832,9 @@
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1905,8 +1932,11 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1922,8 +1952,11 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -1939,8 +1972,11 @@
       <c r="E18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1956,8 +1992,11 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1973,8 +2012,11 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1990,8 +2032,11 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2007,8 +2052,11 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -2024,8 +2072,11 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -2042,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -2059,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -2076,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2093,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -2110,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -2129,6 +2180,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4050,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E865CF0B-C2EB-4915-A8EA-926F7C386763}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4098,6 +4150,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4115,6 +4170,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4132,6 +4190,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4170,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/sankey/sankey.xlsx
+++ b/data/sankey/sankey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\An\Documents\GitHub\COS30045\data\sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF5FD90-3356-4271-A588-B41DFA9FEFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC38D18-0FA1-4610-9888-C3DF778D33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="230">
   <si>
     <t>MSN</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>#F0ECE2</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -1604,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD520A74-6D21-4711-8177-C48F7CF78287}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,6 +2163,9 @@
       <c r="E28">
         <v>2</v>
       </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2176,6 +2182,9 @@
       </c>
       <c r="E29">
         <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4112,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A13" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4288,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
